--- a/ICT Sectors.xlsx
+++ b/ICT Sectors.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\Dais Team Drive\1. Policy + Research\4. Pre-Integration Projects\1. BII+E Pre-Integrations Projects\3. Workstream  Jobs, Skills + Technology Change\202301 - Microcredentials and Labour Market Outcomes\Execution\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrahim\OneDrive\Desktop\Brookfield 2023\Microcredentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C1A3B9-B464-483F-A1D3-7D883CD4AE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE98C7DF-6B2A-4537-946B-DD60E8EED1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{5D548563-90CB-477B-8A7C-C7905C654E30}"/>
+    <workbookView xWindow="40920" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{5D548563-90CB-477B-8A7C-C7905C654E30}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Scientists" sheetId="1" r:id="rId1"/>
@@ -36,30 +36,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="126">
   <si>
     <t>Industry</t>
   </si>
@@ -394,27 +372,56 @@
     <t>Maritime</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Total</t>
+    <t>Building Materials</t>
+  </si>
+  <si>
+    <t>Cosmetics</t>
+  </si>
+  <si>
+    <t>Fishery</t>
+  </si>
+  <si>
+    <t>Glass, Ceramics &amp; Concrete</t>
+  </si>
+  <si>
+    <t>Luxury Goods &amp; Jewelry</t>
+  </si>
+  <si>
+    <t>Motion Pictures &amp; Film</t>
+  </si>
+  <si>
+    <t>Plastics</t>
+  </si>
+  <si>
+    <t>Shipbuilding</t>
+  </si>
+  <si>
+    <t>Writing &amp; Editing</t>
+  </si>
+  <si>
+    <t>Architecture &amp; Planning</t>
+  </si>
+  <si>
+    <t>Arts &amp; Crafts</t>
+  </si>
+  <si>
+    <t>Facilities Services</t>
+  </si>
+  <si>
+    <t>Law Practice</t>
+  </si>
+  <si>
+    <t>Performing Arts</t>
+  </si>
+  <si>
+    <t>Veterinary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,20 +453,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -771,18 +775,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C718E755-A72F-4A66-8546-5A36D847617E}">
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="32.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -792,17 +794,8 @@
       <c r="C1" t="s">
         <v>102</v>
       </c>
-      <c r="E1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -812,22 +805,8 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="E2" cm="1">
-        <f t="array" ref="E2">SUM(B2:B101*C2:C101)</f>
-        <v>7741</v>
-      </c>
-      <c r="F2" s="3">
-        <f>G2-E2</f>
-        <v>10390</v>
-      </c>
-      <c r="G2" s="3">
-        <f>SUM(B2:B101)</f>
-        <v>18131</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -837,17 +816,8 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="E3" s="4">
-        <f>E2/G2</f>
-        <v>0.42694832055595389</v>
-      </c>
-      <c r="F3" s="4">
-        <f>F2/G2</f>
-        <v>0.57305167944404611</v>
-      </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -857,9 +827,8 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -869,9 +838,8 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,9 +849,8 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,9 +860,8 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -905,9 +871,8 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -917,9 +882,8 @@
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -929,9 +893,8 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -941,9 +904,8 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -953,9 +915,8 @@
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -965,9 +926,8 @@
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -977,9 +937,8 @@
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -989,9 +948,8 @@
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1001,9 +959,8 @@
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -1013,9 +970,8 @@
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -1025,9 +981,8 @@
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -1037,9 +992,8 @@
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -1050,7 +1004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -1061,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -1072,7 +1026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1083,7 +1037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -1094,7 +1048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -1105,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -1116,7 +1070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -1127,7 +1081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -1138,7 +1092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -1149,7 +1103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -1160,7 +1114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -1171,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -1182,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -1193,7 +1147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -1204,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
@@ -1215,7 +1169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
@@ -1226,7 +1180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
@@ -1237,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
@@ -1248,7 +1202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
@@ -1259,7 +1213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
@@ -1270,7 +1224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
@@ -1281,7 +1235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
@@ -1292,7 +1246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1303,7 +1257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
@@ -1314,7 +1268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -1325,7 +1279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -1336,7 +1290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
@@ -1347,7 +1301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
@@ -1358,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
@@ -1369,7 +1323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
@@ -1380,7 +1334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
@@ -1391,7 +1345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
@@ -1402,7 +1356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
@@ -1413,7 +1367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
@@ -1424,7 +1378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
@@ -1435,7 +1389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
@@ -1446,7 +1400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
@@ -1457,7 +1411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
@@ -1468,7 +1422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
@@ -1479,7 +1433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
@@ -1490,7 +1444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
@@ -1501,7 +1455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
@@ -1512,7 +1466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
@@ -1523,7 +1477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
@@ -1534,7 +1488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
@@ -1545,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
@@ -1556,7 +1510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
@@ -1567,7 +1521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
@@ -1578,7 +1532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
@@ -1589,7 +1543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
@@ -1600,7 +1554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>71</v>
       </c>
@@ -1611,7 +1565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>72</v>
       </c>
@@ -1622,7 +1576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
@@ -1633,7 +1587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>74</v>
       </c>
@@ -1644,7 +1598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>75</v>
       </c>
@@ -1655,7 +1609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>76</v>
       </c>
@@ -1666,7 +1620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>77</v>
       </c>
@@ -1677,7 +1631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>78</v>
       </c>
@@ -1688,7 +1642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>79</v>
       </c>
@@ -1699,7 +1653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
@@ -1710,7 +1664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>81</v>
       </c>
@@ -1721,7 +1675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>82</v>
       </c>
@@ -1732,7 +1686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>83</v>
       </c>
@@ -1743,7 +1697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>84</v>
       </c>
@@ -1754,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>85</v>
       </c>
@@ -1765,7 +1719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>86</v>
       </c>
@@ -1776,7 +1730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>87</v>
       </c>
@@ -1787,7 +1741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>88</v>
       </c>
@@ -1798,7 +1752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>89</v>
       </c>
@@ -1809,7 +1763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>90</v>
       </c>
@@ -1820,7 +1774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>91</v>
       </c>
@@ -1831,7 +1785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>92</v>
       </c>
@@ -1842,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>93</v>
       </c>
@@ -1853,7 +1807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>94</v>
       </c>
@@ -1864,7 +1818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>95</v>
       </c>
@@ -1875,7 +1829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>96</v>
       </c>
@@ -1886,7 +1840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>97</v>
       </c>
@@ -1897,7 +1851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
         <v>98</v>
       </c>
@@ -1908,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
         <v>99</v>
       </c>
@@ -1919,7 +1873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
         <v>100</v>
       </c>
@@ -1930,7 +1884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
         <v>101</v>
       </c>
@@ -1938,6 +1892,193 @@
         <v>6</v>
       </c>
       <c r="C101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>111</v>
+      </c>
+      <c r="B102" s="2">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>112</v>
+      </c>
+      <c r="B103" s="2">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104" s="2">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>114</v>
+      </c>
+      <c r="B105" s="2">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>115</v>
+      </c>
+      <c r="B106" s="2">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107" s="2">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>116</v>
+      </c>
+      <c r="B108" s="2">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>117</v>
+      </c>
+      <c r="B109" s="2">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>118</v>
+      </c>
+      <c r="B110" s="2">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>119</v>
+      </c>
+      <c r="B111" s="2">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>120</v>
+      </c>
+      <c r="B112" s="2">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>121</v>
+      </c>
+      <c r="B113" s="2">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>122</v>
+      </c>
+      <c r="B114" s="2">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>123</v>
+      </c>
+      <c r="B115" s="2">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>124</v>
+      </c>
+      <c r="B116" s="2">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>97</v>
+      </c>
+      <c r="B117" s="2">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>125</v>
+      </c>
+      <c r="B118" s="2">
+        <v>1</v>
+      </c>
+      <c r="C118">
         <v>0</v>
       </c>
     </row>
@@ -1948,18 +2089,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7131F9-DE67-43F0-BB66-453A36BCC941}">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="32.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1969,17 +2108,8 @@
       <c r="C1" t="s">
         <v>102</v>
       </c>
-      <c r="E1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1989,20 +2119,8 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="E2" cm="1">
-        <f t="array" ref="E2">SUM(B2:B101*C2:C101)</f>
-        <v>87342</v>
-      </c>
-      <c r="F2" s="3">
-        <f>G2-E2</f>
-        <v>57758</v>
-      </c>
-      <c r="G2" s="3">
-        <f>SUM(B2:B101)</f>
-        <v>145100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2012,16 +2130,8 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="E3" s="4">
-        <f>E2/G2</f>
-        <v>0.60194348725017233</v>
-      </c>
-      <c r="F3" s="4">
-        <f>F2/G2</f>
-        <v>0.39805651274982773</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2032,7 +2142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2043,7 +2153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2054,7 +2164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2065,7 +2175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2076,7 +2186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2087,7 +2197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2098,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -2109,7 +2219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -2120,7 +2230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2131,7 +2241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -2142,7 +2252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2153,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2164,7 +2274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -2175,7 +2285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -2186,7 +2296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -2197,7 +2307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -2208,7 +2318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2219,7 +2329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -2230,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -2241,7 +2351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -2252,7 +2362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -2263,7 +2373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>78</v>
       </c>
@@ -2274,7 +2384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -2285,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -2296,7 +2406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -2307,7 +2417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -2318,7 +2428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -2329,7 +2439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -2340,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -2351,7 +2461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -2362,7 +2472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2373,7 +2483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -2384,7 +2494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -2395,7 +2505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -2406,7 +2516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -2417,7 +2527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -2428,7 +2538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -2439,7 +2549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>64</v>
       </c>
@@ -2450,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>90</v>
       </c>
@@ -2461,7 +2571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -2472,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -2483,7 +2593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>35</v>
       </c>
@@ -2494,7 +2604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -2505,7 +2615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -2516,7 +2626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -2527,7 +2637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -2538,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -2549,7 +2659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>40</v>
       </c>
@@ -2560,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>66</v>
       </c>
@@ -2571,7 +2681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>61</v>
       </c>
@@ -2582,7 +2692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -2593,7 +2703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>42</v>
       </c>
@@ -2604,7 +2714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>71</v>
       </c>
@@ -2615,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -2626,7 +2736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>38</v>
       </c>
@@ -2637,7 +2747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>48</v>
       </c>
@@ -2648,7 +2758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -2659,7 +2769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>75</v>
       </c>
@@ -2670,7 +2780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>72</v>
       </c>
@@ -2681,7 +2791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>31</v>
       </c>
@@ -2692,7 +2802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>50</v>
       </c>
@@ -2703,7 +2813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>29</v>
       </c>
@@ -2714,7 +2824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>62</v>
       </c>
@@ -2725,7 +2835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>85</v>
       </c>
@@ -2736,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -2747,7 +2857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -2758,7 +2868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>103</v>
       </c>
@@ -2769,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -2780,7 +2890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>88</v>
       </c>
@@ -2791,7 +2901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>46</v>
       </c>
@@ -2802,7 +2912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -2813,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>104</v>
       </c>
@@ -2824,7 +2934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>87</v>
       </c>
@@ -2835,7 +2945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -2846,7 +2956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>53</v>
       </c>
@@ -2857,7 +2967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>51</v>
       </c>
@@ -2868,7 +2978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>105</v>
       </c>
@@ -2879,7 +2989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>86</v>
       </c>
@@ -2890,7 +3000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -2901,7 +3011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>106</v>
       </c>
@@ -2912,7 +3022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>89</v>
       </c>
@@ -2923,7 +3033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>94</v>
       </c>
@@ -2934,7 +3044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>80</v>
       </c>
@@ -2945,7 +3055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>70</v>
       </c>
@@ -2956,7 +3066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>92</v>
       </c>
@@ -2967,7 +3077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>54</v>
       </c>
@@ -2978,7 +3088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>84</v>
       </c>
@@ -2989,7 +3099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>100</v>
       </c>
@@ -3000,7 +3110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>107</v>
       </c>
@@ -3011,7 +3121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>77</v>
       </c>
@@ -3022,7 +3132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>99</v>
       </c>
@@ -3033,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>108</v>
       </c>
@@ -3044,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>81</v>
       </c>
@@ -3055,7 +3165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>109</v>
       </c>
@@ -3066,7 +3176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>110</v>
       </c>
@@ -3077,7 +3187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>93</v>
       </c>
@@ -3088,7 +3198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>74</v>
       </c>
@@ -3096,6 +3206,193 @@
         <v>94</v>
       </c>
       <c r="C101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>120</v>
+      </c>
+      <c r="B102" s="3">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>121</v>
+      </c>
+      <c r="B103" s="3">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>122</v>
+      </c>
+      <c r="B104" s="3">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>123</v>
+      </c>
+      <c r="B105" s="3">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>124</v>
+      </c>
+      <c r="B106" s="3">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>97</v>
+      </c>
+      <c r="B107" s="3">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>125</v>
+      </c>
+      <c r="B108" s="3">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109" s="2">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>112</v>
+      </c>
+      <c r="B110" s="2">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>113</v>
+      </c>
+      <c r="B111" s="2">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>114</v>
+      </c>
+      <c r="B112" s="2">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>115</v>
+      </c>
+      <c r="B113" s="2">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>110</v>
+      </c>
+      <c r="B114" s="2">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" s="2">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" s="2">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" s="2">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" s="2">
+        <v>1</v>
+      </c>
+      <c r="C118">
         <v>0</v>
       </c>
     </row>
